--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2125036666666666</v>
+        <v>0.4149273333333334</v>
       </c>
       <c r="H2">
-        <v>0.6375109999999999</v>
+        <v>1.244782</v>
       </c>
       <c r="I2">
-        <v>0.1064749515943994</v>
+        <v>0.1353844755004719</v>
       </c>
       <c r="J2">
-        <v>0.1064749515943994</v>
+        <v>0.1353844755004719</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.49243633333333</v>
+        <v>19.59940166666667</v>
       </c>
       <c r="N2">
-        <v>61.477309</v>
+        <v>58.798205</v>
       </c>
       <c r="O2">
-        <v>0.1704171761399068</v>
+        <v>0.1807871245579405</v>
       </c>
       <c r="P2">
-        <v>0.1704171761399068</v>
+        <v>0.1807871245579405</v>
       </c>
       <c r="Q2">
-        <v>4.354717859766556</v>
+        <v>8.13232746847889</v>
       </c>
       <c r="R2">
-        <v>39.192460737899</v>
+        <v>73.19094721630999</v>
       </c>
       <c r="S2">
-        <v>0.01814516058035081</v>
+        <v>0.02447577003551525</v>
       </c>
       <c r="T2">
-        <v>0.01814516058035081</v>
+        <v>0.02447577003551525</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2125036666666666</v>
+        <v>0.4149273333333334</v>
       </c>
       <c r="H3">
-        <v>0.6375109999999999</v>
+        <v>1.244782</v>
       </c>
       <c r="I3">
-        <v>0.1064749515943994</v>
+        <v>0.1353844755004719</v>
       </c>
       <c r="J3">
-        <v>0.1064749515943994</v>
+        <v>0.1353844755004719</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>32.543191</v>
       </c>
       <c r="O3">
-        <v>0.09021082417256794</v>
+        <v>0.1000607063571047</v>
       </c>
       <c r="P3">
-        <v>0.09021082417256795</v>
+        <v>0.1000607063571047</v>
       </c>
       <c r="Q3">
-        <v>2.305182470844555</v>
+        <v>4.501019819929112</v>
       </c>
       <c r="R3">
-        <v>20.746642237601</v>
+        <v>40.50917837936201</v>
       </c>
       <c r="S3">
-        <v>0.009605193137065045</v>
+        <v>0.01354666624836336</v>
       </c>
       <c r="T3">
-        <v>0.009605193137065048</v>
+        <v>0.01354666624836336</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2125036666666666</v>
+        <v>0.4149273333333334</v>
       </c>
       <c r="H4">
-        <v>0.6375109999999999</v>
+        <v>1.244782</v>
       </c>
       <c r="I4">
-        <v>0.1064749515943994</v>
+        <v>0.1353844755004719</v>
       </c>
       <c r="J4">
-        <v>0.1064749515943994</v>
+        <v>0.1353844755004719</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.830172</v>
+        <v>4.842319</v>
       </c>
       <c r="N4">
-        <v>14.490516</v>
+        <v>14.526957</v>
       </c>
       <c r="O4">
-        <v>0.04016819957962275</v>
+        <v>0.04466610476640988</v>
       </c>
       <c r="P4">
-        <v>0.04016819957962274</v>
+        <v>0.04466610476640988</v>
       </c>
       <c r="Q4">
-        <v>1.026429260630667</v>
+        <v>2.009210509819333</v>
       </c>
       <c r="R4">
-        <v>9.237863345675999</v>
+        <v>18.082894588374</v>
       </c>
       <c r="S4">
-        <v>0.004276907105874505</v>
+        <v>0.00604709716644953</v>
       </c>
       <c r="T4">
-        <v>0.004276907105874506</v>
+        <v>0.00604709716644953</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2125036666666666</v>
+        <v>0.4149273333333334</v>
       </c>
       <c r="H5">
-        <v>0.6375109999999999</v>
+        <v>1.244782</v>
       </c>
       <c r="I5">
-        <v>0.1064749515943994</v>
+        <v>0.1353844755004719</v>
       </c>
       <c r="J5">
-        <v>0.1064749515943994</v>
+        <v>0.1353844755004719</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.078317</v>
+        <v>73.12203966666667</v>
       </c>
       <c r="N5">
-        <v>252.234951</v>
+        <v>219.366119</v>
       </c>
       <c r="O5">
-        <v>0.6992038001079025</v>
+        <v>0.674486064318545</v>
       </c>
       <c r="P5">
-        <v>0.6992038001079025</v>
+        <v>0.674486064318545</v>
       </c>
       <c r="Q5">
-        <v>17.86695064966233</v>
+        <v>30.34033292678422</v>
       </c>
       <c r="R5">
-        <v>160.802555846961</v>
+        <v>273.062996341058</v>
       </c>
       <c r="S5">
-        <v>0.07444769077110902</v>
+        <v>0.09131494205014377</v>
       </c>
       <c r="T5">
-        <v>0.07444769077110903</v>
+        <v>0.09131494205014377</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.579424</v>
       </c>
       <c r="I6">
-        <v>0.597823405613129</v>
+        <v>0.389303862711544</v>
       </c>
       <c r="J6">
-        <v>0.5978234056131291</v>
+        <v>0.389303862711544</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.49243633333333</v>
+        <v>19.59940166666667</v>
       </c>
       <c r="N6">
-        <v>61.477309</v>
+        <v>58.798205</v>
       </c>
       <c r="O6">
-        <v>0.1704171761399068</v>
+        <v>0.1807871245579405</v>
       </c>
       <c r="P6">
-        <v>0.1704171761399068</v>
+        <v>0.1807871245579405</v>
       </c>
       <c r="Q6">
-        <v>24.45037281000178</v>
+        <v>23.38485623710222</v>
       </c>
       <c r="R6">
-        <v>220.053355290016</v>
+        <v>210.46370613392</v>
       </c>
       <c r="S6">
-        <v>0.1018793766149315</v>
+        <v>0.07038112591891926</v>
       </c>
       <c r="T6">
-        <v>0.1018793766149316</v>
+        <v>0.07038112591891926</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.579424</v>
       </c>
       <c r="I7">
-        <v>0.597823405613129</v>
+        <v>0.389303862711544</v>
       </c>
       <c r="J7">
-        <v>0.5978234056131291</v>
+        <v>0.389303862711544</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>32.543191</v>
       </c>
       <c r="O7">
-        <v>0.09021082417256794</v>
+        <v>0.1000607063571047</v>
       </c>
       <c r="P7">
-        <v>0.09021082417256795</v>
+        <v>0.1000607063571047</v>
       </c>
       <c r="Q7">
         <v>12.94287543355378</v>
@@ -883,10 +883,10 @@
         <v>116.485878901984</v>
       </c>
       <c r="S7">
-        <v>0.05393014213001174</v>
+        <v>0.03895401949046642</v>
       </c>
       <c r="T7">
-        <v>0.05393014213001176</v>
+        <v>0.03895401949046642</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.579424</v>
       </c>
       <c r="I8">
-        <v>0.597823405613129</v>
+        <v>0.389303862711544</v>
       </c>
       <c r="J8">
-        <v>0.5978234056131291</v>
+        <v>0.389303862711544</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.830172</v>
+        <v>4.842319</v>
       </c>
       <c r="N8">
-        <v>14.490516</v>
+        <v>14.526957</v>
       </c>
       <c r="O8">
-        <v>0.04016819957962275</v>
+        <v>0.04466610476640988</v>
       </c>
       <c r="P8">
-        <v>0.04016819957962274</v>
+        <v>0.04466610476640988</v>
       </c>
       <c r="Q8">
-        <v>5.763077860309334</v>
+        <v>5.777570948085334</v>
       </c>
       <c r="R8">
-        <v>51.867700742784</v>
+        <v>51.998138532768</v>
       </c>
       <c r="S8">
-        <v>0.02401348987003793</v>
+        <v>0.01738868711784188</v>
       </c>
       <c r="T8">
-        <v>0.02401348987003793</v>
+        <v>0.01738868711784188</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.579424</v>
       </c>
       <c r="I9">
-        <v>0.597823405613129</v>
+        <v>0.389303862711544</v>
       </c>
       <c r="J9">
-        <v>0.5978234056131291</v>
+        <v>0.389303862711544</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>84.078317</v>
+        <v>73.12203966666667</v>
       </c>
       <c r="N9">
-        <v>252.234951</v>
+        <v>219.366119</v>
       </c>
       <c r="O9">
-        <v>0.6992038001079025</v>
+        <v>0.674486064318545</v>
       </c>
       <c r="P9">
-        <v>0.6992038001079025</v>
+        <v>0.674486064318545</v>
       </c>
       <c r="Q9">
-        <v>100.3173152498027</v>
+        <v>87.24492790393955</v>
       </c>
       <c r="R9">
-        <v>902.855837248224</v>
+        <v>785.204351135456</v>
       </c>
       <c r="S9">
-        <v>0.4180003969981477</v>
+        <v>0.2625800301843165</v>
       </c>
       <c r="T9">
-        <v>0.4180003969981478</v>
+        <v>0.2625800301843165</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4400006666666667</v>
+        <v>1.270157666666667</v>
       </c>
       <c r="H10">
-        <v>1.320002</v>
+        <v>3.810473</v>
       </c>
       <c r="I10">
-        <v>0.2204623121083564</v>
+        <v>0.4144331204288861</v>
       </c>
       <c r="J10">
-        <v>0.2204623121083564</v>
+        <v>0.4144331204288861</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.49243633333333</v>
+        <v>19.59940166666667</v>
       </c>
       <c r="N10">
-        <v>61.477309</v>
+        <v>58.798205</v>
       </c>
       <c r="O10">
-        <v>0.1704171761399068</v>
+        <v>0.1807871245579405</v>
       </c>
       <c r="P10">
-        <v>0.1704171761399068</v>
+        <v>0.1807871245579405</v>
       </c>
       <c r="Q10">
-        <v>9.016685648290888</v>
+        <v>24.89433028899611</v>
       </c>
       <c r="R10">
-        <v>81.150170834618</v>
+        <v>224.048972600965</v>
       </c>
       <c r="S10">
-        <v>0.03757056467478087</v>
+        <v>0.07492417216391298</v>
       </c>
       <c r="T10">
-        <v>0.03757056467478088</v>
+        <v>0.07492417216391298</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4400006666666667</v>
+        <v>1.270157666666667</v>
       </c>
       <c r="H11">
-        <v>1.320002</v>
+        <v>3.810473</v>
       </c>
       <c r="I11">
-        <v>0.2204623121083564</v>
+        <v>0.4144331204288861</v>
       </c>
       <c r="J11">
-        <v>0.2204623121083564</v>
+        <v>0.4144331204288861</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>32.543191</v>
       </c>
       <c r="O11">
-        <v>0.09021082417256794</v>
+        <v>0.1000607063571047</v>
       </c>
       <c r="P11">
-        <v>0.09021082417256795</v>
+        <v>0.1000607063571047</v>
       </c>
       <c r="Q11">
-        <v>4.773008578486889</v>
+        <v>13.77832784881589</v>
       </c>
       <c r="R11">
-        <v>42.957077206382</v>
+        <v>124.004950639343</v>
       </c>
       <c r="S11">
-        <v>0.01988808687428473</v>
+        <v>0.0414684707678934</v>
       </c>
       <c r="T11">
-        <v>0.01988808687428474</v>
+        <v>0.0414684707678934</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4400006666666667</v>
+        <v>1.270157666666667</v>
       </c>
       <c r="H12">
-        <v>1.320002</v>
+        <v>3.810473</v>
       </c>
       <c r="I12">
-        <v>0.2204623121083564</v>
+        <v>0.4144331204288861</v>
       </c>
       <c r="J12">
-        <v>0.2204623121083564</v>
+        <v>0.4144331204288861</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.830172</v>
+        <v>4.842319</v>
       </c>
       <c r="N12">
-        <v>14.490516</v>
+        <v>14.526957</v>
       </c>
       <c r="O12">
-        <v>0.04016819957962275</v>
+        <v>0.04466610476640988</v>
       </c>
       <c r="P12">
-        <v>0.04016819957962274</v>
+        <v>0.04466610476640988</v>
       </c>
       <c r="Q12">
-        <v>2.125278900114667</v>
+        <v>6.150508602295667</v>
       </c>
       <c r="R12">
-        <v>19.127510101032</v>
+        <v>55.35457742066099</v>
       </c>
       <c r="S12">
-        <v>0.008855574152553539</v>
+        <v>0.01851111317574679</v>
       </c>
       <c r="T12">
-        <v>0.008855574152553539</v>
+        <v>0.01851111317574679</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4400006666666667</v>
+        <v>1.270157666666667</v>
       </c>
       <c r="H13">
-        <v>1.320002</v>
+        <v>3.810473</v>
       </c>
       <c r="I13">
-        <v>0.2204623121083564</v>
+        <v>0.4144331204288861</v>
       </c>
       <c r="J13">
-        <v>0.2204623121083564</v>
+        <v>0.4144331204288861</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>84.078317</v>
+        <v>73.12203966666667</v>
       </c>
       <c r="N13">
-        <v>252.234951</v>
+        <v>219.366119</v>
       </c>
       <c r="O13">
-        <v>0.6992038001079025</v>
+        <v>0.674486064318545</v>
       </c>
       <c r="P13">
-        <v>0.6992038001079025</v>
+        <v>0.674486064318545</v>
       </c>
       <c r="Q13">
-        <v>36.99451553221133</v>
+        <v>92.87651928492079</v>
       </c>
       <c r="R13">
-        <v>332.950639789902</v>
+        <v>835.888673564287</v>
       </c>
       <c r="S13">
-        <v>0.1541480864067372</v>
+        <v>0.279529364321333</v>
       </c>
       <c r="T13">
-        <v>0.1541480864067372</v>
+        <v>0.279529364321333</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1501633333333333</v>
+        <v>0.186581</v>
       </c>
       <c r="H14">
-        <v>0.45049</v>
+        <v>0.559743</v>
       </c>
       <c r="I14">
-        <v>0.07523933068411523</v>
+        <v>0.06087854135909794</v>
       </c>
       <c r="J14">
-        <v>0.07523933068411524</v>
+        <v>0.06087854135909794</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.49243633333333</v>
+        <v>19.59940166666667</v>
       </c>
       <c r="N14">
-        <v>61.477309</v>
+        <v>58.798205</v>
       </c>
       <c r="O14">
-        <v>0.1704171761399068</v>
+        <v>0.1807871245579405</v>
       </c>
       <c r="P14">
-        <v>0.1704171761399068</v>
+        <v>0.1807871245579405</v>
       </c>
       <c r="Q14">
-        <v>3.077212547934445</v>
+        <v>3.656875962368333</v>
       </c>
       <c r="R14">
-        <v>27.69491293141</v>
+        <v>32.911883661315</v>
       </c>
       <c r="S14">
-        <v>0.01282207426984356</v>
+        <v>0.01100605643959297</v>
       </c>
       <c r="T14">
-        <v>0.01282207426984356</v>
+        <v>0.01100605643959297</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1501633333333333</v>
+        <v>0.186581</v>
       </c>
       <c r="H15">
-        <v>0.45049</v>
+        <v>0.559743</v>
       </c>
       <c r="I15">
-        <v>0.07523933068411523</v>
+        <v>0.06087854135909794</v>
       </c>
       <c r="J15">
-        <v>0.07523933068411524</v>
+        <v>0.06087854135909794</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>32.543191</v>
       </c>
       <c r="O15">
-        <v>0.09021082417256794</v>
+        <v>0.1000607063571047</v>
       </c>
       <c r="P15">
-        <v>0.09021082417256795</v>
+        <v>0.1000607063571047</v>
       </c>
       <c r="Q15">
-        <v>1.628931345954445</v>
+        <v>2.023980373323667</v>
       </c>
       <c r="R15">
-        <v>14.66038211359</v>
+        <v>18.215823359913</v>
       </c>
       <c r="S15">
-        <v>0.006787402031206415</v>
+        <v>0.006091549850381554</v>
       </c>
       <c r="T15">
-        <v>0.006787402031206417</v>
+        <v>0.006091549850381555</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1501633333333333</v>
+        <v>0.186581</v>
       </c>
       <c r="H16">
-        <v>0.45049</v>
+        <v>0.559743</v>
       </c>
       <c r="I16">
-        <v>0.07523933068411523</v>
+        <v>0.06087854135909794</v>
       </c>
       <c r="J16">
-        <v>0.07523933068411524</v>
+        <v>0.06087854135909794</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.830172</v>
+        <v>4.842319</v>
       </c>
       <c r="N16">
-        <v>14.490516</v>
+        <v>14.526957</v>
       </c>
       <c r="O16">
-        <v>0.04016819957962275</v>
+        <v>0.04466610476640988</v>
       </c>
       <c r="P16">
-        <v>0.04016819957962274</v>
+        <v>0.04466610476640988</v>
       </c>
       <c r="Q16">
-        <v>0.7253147280933334</v>
+        <v>0.9034847213389999</v>
       </c>
       <c r="R16">
-        <v>6.52783255284</v>
+        <v>8.131362492051</v>
       </c>
       <c r="S16">
-        <v>0.003022228451156774</v>
+        <v>0.002719207306371685</v>
       </c>
       <c r="T16">
-        <v>0.003022228451156774</v>
+        <v>0.002719207306371685</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1501633333333333</v>
+        <v>0.186581</v>
       </c>
       <c r="H17">
-        <v>0.45049</v>
+        <v>0.559743</v>
       </c>
       <c r="I17">
-        <v>0.07523933068411523</v>
+        <v>0.06087854135909794</v>
       </c>
       <c r="J17">
-        <v>0.07523933068411524</v>
+        <v>0.06087854135909794</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>84.078317</v>
+        <v>73.12203966666667</v>
       </c>
       <c r="N17">
-        <v>252.234951</v>
+        <v>219.366119</v>
       </c>
       <c r="O17">
-        <v>0.6992038001079025</v>
+        <v>0.674486064318545</v>
       </c>
       <c r="P17">
-        <v>0.6992038001079025</v>
+        <v>0.674486064318545</v>
       </c>
       <c r="Q17">
-        <v>12.62548034177667</v>
+        <v>13.64318328304633</v>
       </c>
       <c r="R17">
-        <v>113.62932307599</v>
+        <v>122.788649547417</v>
       </c>
       <c r="S17">
-        <v>0.05260762593190848</v>
+        <v>0.04106172776275174</v>
       </c>
       <c r="T17">
-        <v>0.05260762593190849</v>
+        <v>0.04106172776275174</v>
       </c>
     </row>
   </sheetData>
